--- a/DSTASPXN.xlsx
+++ b/DSTASPXN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gruppofsitaliane-my.sharepoint.com/personal/8931520_fstechnology_it/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_B1718F25AB758C5F40785BB359C63ED420F85275" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0B38933-5F59-4A5B-B5C7-8778EE62D7B8}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_B171291DA95470AEC90A337243C63ED420F8EB9D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD8C661D-6A4F-4598-A0B2-AC151D094A77}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9408" uniqueCount="9401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9446" uniqueCount="9439">
   <si>
     <t>dsvccr</t>
   </si>
@@ -28223,6 +28223,120 @@
   </si>
   <si>
     <t>NUMANA</t>
+  </si>
+  <si>
+    <t>14597</t>
+  </si>
+  <si>
+    <t>NOVENTA DI PIAVE OUTLET</t>
+  </si>
+  <si>
+    <t>14601</t>
+  </si>
+  <si>
+    <t>UDINE AUTOSTAZIONE</t>
+  </si>
+  <si>
+    <t>14602</t>
+  </si>
+  <si>
+    <t>CASANOVA DI MARTIGNACCO</t>
+  </si>
+  <si>
+    <t>14603</t>
+  </si>
+  <si>
+    <t>PLAINO</t>
+  </si>
+  <si>
+    <t>14604</t>
+  </si>
+  <si>
+    <t>TORREANO DI MARTIGNACCO</t>
+  </si>
+  <si>
+    <t>14605</t>
+  </si>
+  <si>
+    <t>CERESETTO</t>
+  </si>
+  <si>
+    <t>14606</t>
+  </si>
+  <si>
+    <t>MARTIGNACCO</t>
+  </si>
+  <si>
+    <t>14607</t>
+  </si>
+  <si>
+    <t>VILLALTA DI FAGAGNA</t>
+  </si>
+  <si>
+    <t>14608</t>
+  </si>
+  <si>
+    <t>CICONICCO</t>
+  </si>
+  <si>
+    <t>14609</t>
+  </si>
+  <si>
+    <t>FAGAGNA</t>
+  </si>
+  <si>
+    <t>14610</t>
+  </si>
+  <si>
+    <t>SAN GIOVANNI IN COLLE</t>
+  </si>
+  <si>
+    <t>14611</t>
+  </si>
+  <si>
+    <t>BATTAGLIA DI FAGAGNA</t>
+  </si>
+  <si>
+    <t>14612</t>
+  </si>
+  <si>
+    <t>MADRISIO DI FAGAGNA</t>
+  </si>
+  <si>
+    <t>14613</t>
+  </si>
+  <si>
+    <t>POZZALIS</t>
+  </si>
+  <si>
+    <t>14614</t>
+  </si>
+  <si>
+    <t>RIVE D'ARCANO</t>
+  </si>
+  <si>
+    <t>14615</t>
+  </si>
+  <si>
+    <t>RIVOTTA</t>
+  </si>
+  <si>
+    <t>14616</t>
+  </si>
+  <si>
+    <t>RODEANO BASSO</t>
+  </si>
+  <si>
+    <t>14617</t>
+  </si>
+  <si>
+    <t>RODEANO ALTO</t>
+  </si>
+  <si>
+    <t>14618</t>
+  </si>
+  <si>
+    <t>SAN DANIELE DEL FRIULI</t>
   </si>
 </sst>
 </file>
@@ -28571,15 +28685,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4704"/>
+  <dimension ref="A1:B4723"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4683" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:AN1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -66214,6 +66329,158 @@
         <v>9400</v>
       </c>
     </row>
+    <row r="4705" spans="1:2">
+      <c r="A4705" t="s">
+        <v>9401</v>
+      </c>
+      <c r="B4705" t="s">
+        <v>9402</v>
+      </c>
+    </row>
+    <row r="4706" spans="1:2">
+      <c r="A4706" t="s">
+        <v>9403</v>
+      </c>
+      <c r="B4706" t="s">
+        <v>9404</v>
+      </c>
+    </row>
+    <row r="4707" spans="1:2">
+      <c r="A4707" t="s">
+        <v>9405</v>
+      </c>
+      <c r="B4707" t="s">
+        <v>9406</v>
+      </c>
+    </row>
+    <row r="4708" spans="1:2">
+      <c r="A4708" t="s">
+        <v>9407</v>
+      </c>
+      <c r="B4708" t="s">
+        <v>9408</v>
+      </c>
+    </row>
+    <row r="4709" spans="1:2">
+      <c r="A4709" t="s">
+        <v>9409</v>
+      </c>
+      <c r="B4709" t="s">
+        <v>9410</v>
+      </c>
+    </row>
+    <row r="4710" spans="1:2">
+      <c r="A4710" t="s">
+        <v>9411</v>
+      </c>
+      <c r="B4710" t="s">
+        <v>9412</v>
+      </c>
+    </row>
+    <row r="4711" spans="1:2">
+      <c r="A4711" t="s">
+        <v>9413</v>
+      </c>
+      <c r="B4711" t="s">
+        <v>9414</v>
+      </c>
+    </row>
+    <row r="4712" spans="1:2">
+      <c r="A4712" t="s">
+        <v>9415</v>
+      </c>
+      <c r="B4712" t="s">
+        <v>9416</v>
+      </c>
+    </row>
+    <row r="4713" spans="1:2">
+      <c r="A4713" t="s">
+        <v>9417</v>
+      </c>
+      <c r="B4713" t="s">
+        <v>9418</v>
+      </c>
+    </row>
+    <row r="4714" spans="1:2">
+      <c r="A4714" t="s">
+        <v>9419</v>
+      </c>
+      <c r="B4714" t="s">
+        <v>9420</v>
+      </c>
+    </row>
+    <row r="4715" spans="1:2">
+      <c r="A4715" t="s">
+        <v>9421</v>
+      </c>
+      <c r="B4715" t="s">
+        <v>9422</v>
+      </c>
+    </row>
+    <row r="4716" spans="1:2">
+      <c r="A4716" t="s">
+        <v>9423</v>
+      </c>
+      <c r="B4716" t="s">
+        <v>9424</v>
+      </c>
+    </row>
+    <row r="4717" spans="1:2">
+      <c r="A4717" t="s">
+        <v>9425</v>
+      </c>
+      <c r="B4717" t="s">
+        <v>9426</v>
+      </c>
+    </row>
+    <row r="4718" spans="1:2">
+      <c r="A4718" t="s">
+        <v>9427</v>
+      </c>
+      <c r="B4718" t="s">
+        <v>9428</v>
+      </c>
+    </row>
+    <row r="4719" spans="1:2">
+      <c r="A4719" t="s">
+        <v>9429</v>
+      </c>
+      <c r="B4719" t="s">
+        <v>9430</v>
+      </c>
+    </row>
+    <row r="4720" spans="1:2">
+      <c r="A4720" t="s">
+        <v>9431</v>
+      </c>
+      <c r="B4720" t="s">
+        <v>9432</v>
+      </c>
+    </row>
+    <row r="4721" spans="1:2">
+      <c r="A4721" t="s">
+        <v>9433</v>
+      </c>
+      <c r="B4721" t="s">
+        <v>9434</v>
+      </c>
+    </row>
+    <row r="4722" spans="1:2">
+      <c r="A4722" t="s">
+        <v>9435</v>
+      </c>
+      <c r="B4722" t="s">
+        <v>9436</v>
+      </c>
+    </row>
+    <row r="4723" spans="1:2">
+      <c r="A4723" t="s">
+        <v>9437</v>
+      </c>
+      <c r="B4723" t="s">
+        <v>9438</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DSTASPXN.xlsx
+++ b/DSTASPXN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gruppofsitaliane-my.sharepoint.com/personal/8931520_fstechnology_it/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_B171291DA95470AEC90A337243C63ED420F8EB9D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD8C661D-6A4F-4598-A0B2-AC151D094A77}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_B1717125EE6D342FC83E6B9353C63ED420F8DF08" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1827F41C-AAA1-4590-927C-74E57BCC57F1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9446" uniqueCount="9439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9450" uniqueCount="9443">
   <si>
     <t>dsvccr</t>
   </si>
@@ -28337,6 +28337,18 @@
   </si>
   <si>
     <t>SAN DANIELE DEL FRIULI</t>
+  </si>
+  <si>
+    <t>14701</t>
+  </si>
+  <si>
+    <t>PESCARA AEROPORTO</t>
+  </si>
+  <si>
+    <t>14600</t>
+  </si>
+  <si>
+    <t>GRADARA</t>
   </si>
 </sst>
 </file>
@@ -28685,7 +28697,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4723"/>
+  <dimension ref="A1:B4725"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:AN1048576"/>
@@ -28693,8 +28705,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="41.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -66481,6 +66493,22 @@
         <v>9438</v>
       </c>
     </row>
+    <row r="4724" spans="1:2">
+      <c r="A4724" t="s">
+        <v>9439</v>
+      </c>
+      <c r="B4724" t="s">
+        <v>9440</v>
+      </c>
+    </row>
+    <row r="4725" spans="1:2">
+      <c r="A4725" t="s">
+        <v>9441</v>
+      </c>
+      <c r="B4725" t="s">
+        <v>9442</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DSTASPXN.xlsx
+++ b/DSTASPXN.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gruppofsitaliane-my.sharepoint.com/personal/8931520_fstechnology_it/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gruppofsitaliane-my.sharepoint.com/personal/8931520_fstechnology_it/Documents/Documenti/csv_editor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_B1717125EE6D342FC83E6B9353C63ED420F8DF08" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1827F41C-AAA1-4590-927C-74E57BCC57F1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A1D82FE-32A1-410F-B385-4152A9A3454E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9450" uniqueCount="9443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9460" uniqueCount="9453">
   <si>
     <t>dsvccr</t>
   </si>
@@ -28234,109 +28234,109 @@
     <t>14601</t>
   </si>
   <si>
-    <t>UDINE AUTOSTAZIONE</t>
+    <t>UDINE AUTOSTAZIONE (BUS)</t>
   </si>
   <si>
     <t>14602</t>
   </si>
   <si>
-    <t>CASANOVA DI MARTIGNACCO</t>
+    <t>CASANOVA DI MARTIGNACCO (BUS)</t>
   </si>
   <si>
     <t>14603</t>
   </si>
   <si>
-    <t>PLAINO</t>
+    <t>PLAINO (BUS)</t>
   </si>
   <si>
     <t>14604</t>
   </si>
   <si>
-    <t>TORREANO DI MARTIGNACCO</t>
+    <t>TORREANO DI MARTIGNACCO (BUS)</t>
   </si>
   <si>
     <t>14605</t>
   </si>
   <si>
-    <t>CERESETTO</t>
+    <t>CERESETTO (BUS)</t>
   </si>
   <si>
     <t>14606</t>
   </si>
   <si>
-    <t>MARTIGNACCO</t>
+    <t>MARTIGNACCO (BUS)</t>
   </si>
   <si>
     <t>14607</t>
   </si>
   <si>
-    <t>VILLALTA DI FAGAGNA</t>
+    <t>VILLALTA DI FAGAGNA (BUS)</t>
   </si>
   <si>
     <t>14608</t>
   </si>
   <si>
-    <t>CICONICCO</t>
+    <t>CICONICCO (BUS)</t>
   </si>
   <si>
     <t>14609</t>
   </si>
   <si>
-    <t>FAGAGNA</t>
+    <t>FAGAGNA (BUS)</t>
   </si>
   <si>
     <t>14610</t>
   </si>
   <si>
-    <t>SAN GIOVANNI IN COLLE</t>
+    <t>SAN GIOVANNI IN COLLE (BUS)</t>
   </si>
   <si>
     <t>14611</t>
   </si>
   <si>
-    <t>BATTAGLIA DI FAGAGNA</t>
+    <t>BATTAGLIA DI FAGAGNA (BUS)</t>
   </si>
   <si>
     <t>14612</t>
   </si>
   <si>
-    <t>MADRISIO DI FAGAGNA</t>
+    <t>MADRISIO DI FAGAGNA (BUS)</t>
   </si>
   <si>
     <t>14613</t>
   </si>
   <si>
-    <t>POZZALIS</t>
+    <t>POZZALIS (BUS)</t>
   </si>
   <si>
     <t>14614</t>
   </si>
   <si>
-    <t>RIVE D'ARCANO</t>
+    <t>RIVE D'ARCANO (BUS)</t>
   </si>
   <si>
     <t>14615</t>
   </si>
   <si>
-    <t>RIVOTTA</t>
+    <t>RIVOTTA (BUS)</t>
   </si>
   <si>
     <t>14616</t>
   </si>
   <si>
-    <t>RODEANO BASSO</t>
+    <t>RODEANO BASSO (BUS)</t>
   </si>
   <si>
     <t>14617</t>
   </si>
   <si>
-    <t>RODEANO ALTO</t>
+    <t>RODEANO ALTO (BUS)</t>
   </si>
   <si>
     <t>14618</t>
   </si>
   <si>
-    <t>SAN DANIELE DEL FRIULI</t>
+    <t>SAN DANIELE DEL FRIULI (BUS)</t>
   </si>
   <si>
     <t>14701</t>
@@ -28349,6 +28349,36 @@
   </si>
   <si>
     <t>GRADARA</t>
+  </si>
+  <si>
+    <t>14599</t>
+  </si>
+  <si>
+    <t>CORTONA CENTRO - PIAZZA MERCATO</t>
+  </si>
+  <si>
+    <t>14598</t>
+  </si>
+  <si>
+    <t>CORTONA CENTRO - PIAZZA GARIBALDI</t>
+  </si>
+  <si>
+    <t>14702</t>
+  </si>
+  <si>
+    <t>TRTEC07-CORTONA</t>
+  </si>
+  <si>
+    <t>14703</t>
+  </si>
+  <si>
+    <t>VALMONTONE OUTLET</t>
+  </si>
+  <si>
+    <t>14704</t>
+  </si>
+  <si>
+    <t>AGRIGENTO SCUOLE</t>
   </si>
 </sst>
 </file>
@@ -28697,17 +28727,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4725"/>
+  <dimension ref="A1:B4730"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:AN1048576"/>
+      <selection activeCell="C1" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="41.28515625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -66509,6 +66535,46 @@
         <v>9442</v>
       </c>
     </row>
+    <row r="4726" spans="1:2">
+      <c r="A4726" t="s">
+        <v>9443</v>
+      </c>
+      <c r="B4726" t="s">
+        <v>9444</v>
+      </c>
+    </row>
+    <row r="4727" spans="1:2">
+      <c r="A4727" t="s">
+        <v>9445</v>
+      </c>
+      <c r="B4727" t="s">
+        <v>9446</v>
+      </c>
+    </row>
+    <row r="4728" spans="1:2">
+      <c r="A4728" t="s">
+        <v>9447</v>
+      </c>
+      <c r="B4728" t="s">
+        <v>9448</v>
+      </c>
+    </row>
+    <row r="4729" spans="1:2">
+      <c r="A4729" t="s">
+        <v>9449</v>
+      </c>
+      <c r="B4729" t="s">
+        <v>9450</v>
+      </c>
+    </row>
+    <row r="4730" spans="1:2">
+      <c r="A4730" t="s">
+        <v>9451</v>
+      </c>
+      <c r="B4730" t="s">
+        <v>9452</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DSTASPXN.xlsx
+++ b/DSTASPXN.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gruppofsitaliane-my.sharepoint.com/personal/8931520_fstechnology_it/Documents/Documenti/csv_editor/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gruppofsitaliane-my.sharepoint.com/personal/8931520_fstechnology_it/Documents/Documenti/Modello Rete/check/InserireTabelleDaTestare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A1D82FE-32A1-410F-B385-4152A9A3454E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_B171374DEE76CC8FC6691F7259C63ED420F8B937" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57D08024-9226-49E8-B067-C4DDCD894F24}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="720" windowWidth="15765" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28729,9 +28729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4730"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>

--- a/DSTASPXN.xlsx
+++ b/DSTASPXN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gruppofsitaliane-my.sharepoint.com/personal/8931520_fstechnology_it/Documents/Documenti/Modello Rete/check/InserireTabelleDaTestare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_B171374DEE76CC8FC6691F7259C63ED420F8B937" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57D08024-9226-49E8-B067-C4DDCD894F24}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_B171051D286AB43E4479DB724BC63ED420F8AD5E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{518D3753-9176-4A34-9E2D-2344FBEC8EEA}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="720" windowWidth="15765" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="15765" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9460" uniqueCount="9453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9464" uniqueCount="9457">
   <si>
     <t>dsvccr</t>
   </si>
@@ -28379,6 +28379,18 @@
   </si>
   <si>
     <t>AGRIGENTO SCUOLE</t>
+  </si>
+  <si>
+    <t>14705</t>
+  </si>
+  <si>
+    <t>GOVONE</t>
+  </si>
+  <si>
+    <t>07515</t>
+  </si>
+  <si>
+    <t>MARTINSICURO</t>
   </si>
 </sst>
 </file>
@@ -28727,7 +28739,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4730"/>
+  <dimension ref="A1:B4732"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -66573,6 +66585,22 @@
         <v>9452</v>
       </c>
     </row>
+    <row r="4731" spans="1:2">
+      <c r="A4731" t="s">
+        <v>9453</v>
+      </c>
+      <c r="B4731" t="s">
+        <v>9454</v>
+      </c>
+    </row>
+    <row r="4732" spans="1:2">
+      <c r="A4732" t="s">
+        <v>9455</v>
+      </c>
+      <c r="B4732" t="s">
+        <v>9456</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DSTASPXN.xlsx
+++ b/DSTASPXN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gruppofsitaliane-my.sharepoint.com/personal/8931520_fstechnology_it/Documents/Documenti/Modello Rete/check/InserireTabelleDaTestare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_B171051D286AB43E4479DB724BC63ED420F8AD5E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{518D3753-9176-4A34-9E2D-2344FBEC8EEA}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_B171ECAD6E78702F4128537255C63ED420F8937C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88C2166C-2F42-4E0A-A474-8F2B09861998}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="15765" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="570" windowWidth="17250" windowHeight="10035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9464" uniqueCount="9457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9468" uniqueCount="9461">
   <si>
     <t>dsvccr</t>
   </si>
@@ -3703,7 +3703,7 @@
     <t>MONZA SOBBORGHI</t>
   </si>
   <si>
-    <t>VILLASANTA</t>
+    <t>VILLASANTA PARCO</t>
   </si>
   <si>
     <t>08909</t>
@@ -4093,7 +4093,7 @@
     <t>01712</t>
   </si>
   <si>
-    <t>CALCIO</t>
+    <t>CIVIDATE AL PIANO-CALCIO</t>
   </si>
   <si>
     <t>01713</t>
@@ -12856,7 +12856,7 @@
     <t>MONTERODUNI S. EUSANIO</t>
   </si>
   <si>
-    <t>ROCCA RAVINDOLA</t>
+    <t>ROCCARAVINDOLA</t>
   </si>
   <si>
     <t>09059</t>
@@ -18451,7 +18451,7 @@
     <t>25231</t>
   </si>
   <si>
-    <t>VENEGONO SUPERIORE-CASTIGLIONE</t>
+    <t>VENEGONO SUPERIORE-CASTIGLIONE OL.</t>
   </si>
   <si>
     <t>25232</t>
@@ -28391,6 +28391,18 @@
   </si>
   <si>
     <t>MARTINSICURO</t>
+  </si>
+  <si>
+    <t>01022</t>
+  </si>
+  <si>
+    <t>MILANO TIBALDI-UNIVERSITA' BOCCONI</t>
+  </si>
+  <si>
+    <t>14706</t>
+  </si>
+  <si>
+    <t>BOLOGNA AUTOSTAZIONE CENTRALE</t>
   </si>
 </sst>
 </file>
@@ -28739,7 +28751,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4732"/>
+  <dimension ref="A1:B4734"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -66601,6 +66613,22 @@
         <v>9456</v>
       </c>
     </row>
+    <row r="4733" spans="1:2">
+      <c r="A4733" t="s">
+        <v>9457</v>
+      </c>
+      <c r="B4733" t="s">
+        <v>9458</v>
+      </c>
+    </row>
+    <row r="4734" spans="1:2">
+      <c r="A4734" t="s">
+        <v>9459</v>
+      </c>
+      <c r="B4734" t="s">
+        <v>9460</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
